--- a/images/Diagramm Masterarbeit.xlsx
+++ b/images/Diagramm Masterarbeit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgabr\Desktop\GitProjekte\SimulatingShoe\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EF8EF5A-6AE8-4939-A6F2-C2C997CA3499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040A8AC6-ADB7-4C43-9077-56661C2A1D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{531EBEDF-102F-4094-8E64-7B8D7F7D4816}"/>
   </bookViews>
@@ -20,35 +20,20 @@
     <definedName name="_xlchart.v1.1" hidden="1">Tabelle1!$B$1:$B$31</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">Tabelle1!$K$1:$K$31</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">Tabelle1!$L$1:$L$31</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Tabelle1!$E$1:$E$5</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Tabelle1!$E$1:$L$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Tabelle1!$E$2:$L$2</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Tabelle1!$E$3:$L$3</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Tabelle1!$E$4:$L$4</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Tabelle1!$E$5:$L$5</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Tabelle1!$F$1:$F$5</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Tabelle1!$A$1:$A$5</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Tabelle1!$A$1:$A$31</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Tabelle1!$B$1:$B$31</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Tabelle1!$C$1:$C$31</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Tabelle1!$D$1:$D$31</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Tabelle1!$E$1:$E$31</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Tabelle1!$F$1:$F$31</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Tabelle1!$G$1:$G$31</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Tabelle1!$H$1:$H$31</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Tabelle1!$C$1:$C$31</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Tabelle1!$A$1:$A$6</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Tabelle1!$B$1:$B$5</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Tabelle1!$C$1:$C$5</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Tabelle1!$G$2</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Tabelle1!$A$1:$A$5</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Tabelle1!$B$1:$B$5</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Tabelle1!$C$1:$C$5</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Tabelle1!$A$1:$A$31</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Tabelle1!$B$1:$B$31</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Tabelle1!$C$1:$C$31</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Tabelle1!$I$1:$I$31</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Tabelle1!$J$1:$J$31</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Tabelle1!$K$1:$K$31</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Tabelle1!$L$1:$L$31</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Tabelle1!$D$1:$D$31</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Tabelle1!$D$1:$D$31</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Tabelle1!$E$1:$E$31</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Tabelle1!$F$1:$F$31</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Tabelle1!$G$1:$G$31</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Tabelle1!$H$1:$H$31</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Tabelle1!$I$1:$I$31</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Tabelle1!$J$1:$J$31</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Tabelle1!$K$1:$K$31</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Tabelle1!$L$1:$L$31</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Tabelle1!$E$1:$E$31</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Tabelle1!$F$1:$F$31</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Tabelle1!$G$1:$G$31</definedName>
@@ -73,10 +58,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -135,62 +116,62 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.28</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.30</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.32</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.33</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="7">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.34</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="8">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.35</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="9">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.36</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="10">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.37</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="11">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.38</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -338,10 +319,13 @@
       </cx:plotAreaRegion>
       <cx:axis id="0">
         <cx:catScaling gapWidth="1"/>
+        <cx:majorTickMarks type="in"/>
+        <cx:minorTickMarks type="in"/>
         <cx:tickLabels/>
+        <cx:numFmt formatCode="@" sourceLinked="0"/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling/>
+        <cx:valScaling max="870" min="625"/>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -916,8 +900,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -955,7 +939,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="3190875" y="1689100"/>
-              <a:ext cx="5895975" cy="8940800"/>
+              <a:ext cx="5407025" cy="4521200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1287,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB3FAAF-E929-4057-95D0-A1B0C7B17586}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
